--- a/examples/optimization/scipy/US_2020_Farm_List.xlsx
+++ b/examples/optimization/scipy/US_2020_Farm_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbensaso\floris\examples\optimization\scipy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718F0CD2-29B5-48F7-90E9-5150876E8B11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F096A8FA-6829-4E22-A542-84B036F99C03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="855" windowWidth="21600" windowHeight="11385" xr2:uid="{8ECBDFF1-BDE1-447B-B0A3-AD708458E815}"/>
+    <workbookView xWindow="29550" yWindow="5625" windowWidth="21600" windowHeight="10935" xr2:uid="{8ECBDFF1-BDE1-447B-B0A3-AD708458E815}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="95">
   <si>
     <t>Amazon Wind Farm US Central</t>
   </si>
@@ -333,12 +333,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -353,8 +377,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,15 +697,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D8DB94-E544-42EA-807B-E8F3E79F46B7}">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -708,7 +736,7 @@
       <c r="J1">
         <v>10</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="4">
         <v>11</v>
       </c>
       <c r="L1">
@@ -738,314 +766,329 @@
       <c r="T1">
         <v>20</v>
       </c>
+      <c r="U1">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T2" t="s">
+        <v>85</v>
+      </c>
+      <c r="U2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R3" t="s">
+        <v>76</v>
+      </c>
+      <c r="S3" t="s">
+        <v>81</v>
+      </c>
+      <c r="T3" t="s">
+        <v>86</v>
+      </c>
+      <c r="U3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>72</v>
+      </c>
+      <c r="R4" t="s">
+        <v>77</v>
+      </c>
+      <c r="S4" t="s">
+        <v>82</v>
+      </c>
+      <c r="T4" t="s">
+        <v>87</v>
+      </c>
+      <c r="U4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>73</v>
+      </c>
+      <c r="R5" t="s">
+        <v>78</v>
+      </c>
+      <c r="S5" t="s">
+        <v>83</v>
+      </c>
+      <c r="T5" t="s">
+        <v>88</v>
+      </c>
+      <c r="U5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N2" t="s">
-        <v>55</v>
-      </c>
-      <c r="O2" t="s">
-        <v>65</v>
-      </c>
-      <c r="P2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>75</v>
-      </c>
-      <c r="R2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S2" t="s">
-        <v>85</v>
-      </c>
-      <c r="T2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" t="s">
-        <v>66</v>
-      </c>
-      <c r="P3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>76</v>
-      </c>
-      <c r="R3" t="s">
-        <v>81</v>
-      </c>
-      <c r="S3" t="s">
-        <v>86</v>
-      </c>
-      <c r="T3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N4" t="s">
-        <v>57</v>
-      </c>
-      <c r="O4" t="s">
-        <v>67</v>
-      </c>
-      <c r="P4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>77</v>
-      </c>
-      <c r="R4" t="s">
-        <v>82</v>
-      </c>
-      <c r="S4" t="s">
-        <v>87</v>
-      </c>
-      <c r="T4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5" t="s">
-        <v>58</v>
-      </c>
-      <c r="O5" t="s">
-        <v>68</v>
-      </c>
-      <c r="P5" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>78</v>
-      </c>
-      <c r="R5" t="s">
-        <v>83</v>
-      </c>
-      <c r="S5" t="s">
-        <v>88</v>
-      </c>
-      <c r="T5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="G6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="3" t="s">
         <v>46</v>
       </c>
       <c r="K6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" t="s">
         <v>50</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>64</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>54</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>59</v>
       </c>
-      <c r="O6" t="s">
-        <v>69</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>74</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>79</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>84</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>89</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>94</v>
       </c>
     </row>

--- a/examples/optimization/scipy/US_2020_Farm_List.xlsx
+++ b/examples/optimization/scipy/US_2020_Farm_List.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbensaso\floris\examples\optimization\scipy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F096A8FA-6829-4E22-A542-84B036F99C03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1F0030-60CA-4D52-94A5-05D89B3314AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29550" yWindow="5625" windowWidth="21600" windowHeight="10935" xr2:uid="{8ECBDFF1-BDE1-447B-B0A3-AD708458E815}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8ECBDFF1-BDE1-447B-B0A3-AD708458E815}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="98">
   <si>
     <t>Amazon Wind Farm US Central</t>
   </si>
@@ -318,16 +319,31 @@
   </si>
   <si>
     <t>Notrees</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -377,12 +393,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -697,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D8DB94-E544-42EA-807B-E8F3E79F46B7}">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:AU24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,325 +791,1058 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="6"/>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="6"/>
+      <c r="AN20" s="6"/>
+      <c r="AO20" s="6"/>
+      <c r="AP20" s="6"/>
+      <c r="AQ20" s="6"/>
+      <c r="AR20" s="6"/>
+      <c r="AS20" s="6"/>
+      <c r="AT20" s="6"/>
+      <c r="AU20" s="6"/>
+    </row>
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="6"/>
+      <c r="AN21" s="6"/>
+      <c r="AO21" s="6"/>
+      <c r="AP21" s="6"/>
+      <c r="AQ21" s="6"/>
+      <c r="AR21" s="6"/>
+      <c r="AS21" s="6"/>
+      <c r="AT21" s="6"/>
+      <c r="AU21" s="6"/>
+    </row>
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6"/>
+      <c r="AN22" s="6"/>
+      <c r="AO22" s="6"/>
+      <c r="AP22" s="6"/>
+      <c r="AQ22" s="6"/>
+      <c r="AR22" s="6"/>
+      <c r="AS22" s="6"/>
+      <c r="AT22" s="6"/>
+      <c r="AU22" s="6"/>
+    </row>
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="6"/>
+      <c r="AN23" s="6"/>
+      <c r="AO23" s="6"/>
+      <c r="AP23" s="6"/>
+      <c r="AQ23" s="6"/>
+      <c r="AR23" s="6"/>
+      <c r="AS23" s="6"/>
+      <c r="AT23" s="6"/>
+      <c r="AU23" s="6"/>
+    </row>
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="6"/>
+      <c r="AH24" s="6"/>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="6"/>
+      <c r="AK24" s="6"/>
+      <c r="AL24" s="6"/>
+      <c r="AM24" s="6"/>
+      <c r="AN24" s="6"/>
+      <c r="AO24" s="6"/>
+      <c r="AP24" s="6"/>
+      <c r="AQ24" s="6"/>
+      <c r="AR24" s="6"/>
+      <c r="AS24" s="6"/>
+      <c r="AT24" s="6"/>
+      <c r="AU24" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFBCDDE-F5CE-41F3-9D27-B2D18FAF1383}">
+  <dimension ref="A1:A95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>60</v>
       </c>
-      <c r="N2" t="s">
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>51</v>
       </c>
-      <c r="O2" t="s">
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>55</v>
       </c>
-      <c r="P2" t="s">
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>65</v>
       </c>
-      <c r="Q2" t="s">
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>70</v>
       </c>
-      <c r="R2" t="s">
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>75</v>
       </c>
-      <c r="S2" t="s">
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>80</v>
       </c>
-      <c r="T2" t="s">
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>85</v>
       </c>
-      <c r="U2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" t="s">
-        <v>61</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" t="s">
-        <v>56</v>
-      </c>
-      <c r="P3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>71</v>
-      </c>
-      <c r="R3" t="s">
-        <v>76</v>
-      </c>
-      <c r="S3" t="s">
-        <v>81</v>
-      </c>
-      <c r="T3" t="s">
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>86</v>
       </c>
-      <c r="U3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N4" t="s">
-        <v>52</v>
-      </c>
-      <c r="O4" t="s">
-        <v>57</v>
-      </c>
-      <c r="P4" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>72</v>
-      </c>
-      <c r="R4" t="s">
-        <v>77</v>
-      </c>
-      <c r="S4" t="s">
-        <v>82</v>
-      </c>
-      <c r="T4" t="s">
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>87</v>
       </c>
-      <c r="U4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5" t="s">
-        <v>63</v>
-      </c>
-      <c r="N5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5" t="s">
-        <v>58</v>
-      </c>
-      <c r="P5" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>73</v>
-      </c>
-      <c r="R5" t="s">
-        <v>78</v>
-      </c>
-      <c r="S5" t="s">
-        <v>83</v>
-      </c>
-      <c r="T5" t="s">
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>88</v>
       </c>
-      <c r="U5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" t="s">
-        <v>64</v>
-      </c>
-      <c r="N6" t="s">
-        <v>54</v>
-      </c>
-      <c r="O6" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>74</v>
-      </c>
-      <c r="R6" t="s">
-        <v>79</v>
-      </c>
-      <c r="S6" t="s">
-        <v>84</v>
-      </c>
-      <c r="T6" t="s">
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>89</v>
-      </c>
-      <c r="U6" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
